--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780627</v>
+        <v>111780624</v>
       </c>
       <c r="B2" t="n">
-        <v>78604</v>
+        <v>95532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6461</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707647.2196405758</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R2" t="n">
-        <v>7397286.731778639</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780628</v>
+        <v>111780627</v>
       </c>
       <c r="B3" t="n">
         <v>78604</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707614.4806057075</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R3" t="n">
-        <v>7397255.163644295</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780621</v>
+        <v>111780628</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707631.1509720345</v>
+        <v>707614.4806057075</v>
       </c>
       <c r="R4" t="n">
-        <v>7397277.54798521</v>
+        <v>7397255.163644295</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780624</v>
+        <v>111780621</v>
       </c>
       <c r="B5" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707600.9335272597</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R5" t="n">
-        <v>7397313.141869167</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816118</v>
+        <v>111816119</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707670.4513803272</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R6" t="n">
-        <v>7397327.948038339</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816142</v>
+        <v>111816145</v>
       </c>
       <c r="B7" t="n">
-        <v>78604</v>
+        <v>77597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6461</v>
+        <v>864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707613.3456041727</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R7" t="n">
-        <v>7397270.22663033</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1353,10 +1353,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816132</v>
+        <v>111816142</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>78604</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,21 +1369,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>6461</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707589.6730983062</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R8" t="n">
-        <v>7397240.139162621</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1447,6 +1447,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1466,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816145</v>
+        <v>111816118</v>
       </c>
       <c r="B9" t="n">
-        <v>77597</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,21 +1482,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1506,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707626.9948496711</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R9" t="n">
-        <v>7397311.517900761</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1559,7 +1560,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816119</v>
+        <v>111816137</v>
       </c>
       <c r="B10" t="n">
-        <v>56543</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1594,21 +1594,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707595.5401507822</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R10" t="n">
-        <v>7397262.905378895</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816137</v>
+        <v>111816132</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>95532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707609.3988008115</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R11" t="n">
-        <v>7397264.348220735</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816119</v>
+        <v>111816118</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707595.5401507822</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R6" t="n">
-        <v>7397262.905378895</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816145</v>
+        <v>111816137</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707626.9948496711</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R7" t="n">
-        <v>7397311.517900761</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1334,7 +1334,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1466,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816118</v>
+        <v>111816132</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1478,25 +1477,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1506,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707670.4513803272</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R9" t="n">
-        <v>7397327.948038339</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1578,10 +1577,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816137</v>
+        <v>111816145</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1594,21 +1593,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1618,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707609.3988008115</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R10" t="n">
-        <v>7397264.348220735</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,6 +1671,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816132</v>
+        <v>111816119</v>
       </c>
       <c r="B11" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707589.6730983062</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R11" t="n">
-        <v>7397240.139162621</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780624</v>
+        <v>111780621</v>
       </c>
       <c r="B2" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707600.9335272597</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R2" t="n">
-        <v>7397313.141869167</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780627</v>
+        <v>111780624</v>
       </c>
       <c r="B3" t="n">
-        <v>78604</v>
+        <v>95532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707647.2196405758</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R3" t="n">
-        <v>7397286.731778639</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780621</v>
+        <v>111780627</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707631.1509720345</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R5" t="n">
-        <v>7397277.54798521</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816118</v>
+        <v>111816132</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>95532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707670.4513803272</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R6" t="n">
-        <v>7397327.948038339</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816142</v>
+        <v>111816119</v>
       </c>
       <c r="B8" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707613.3456041727</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R8" t="n">
-        <v>7397270.22663033</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1446,7 +1446,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816132</v>
+        <v>111816118</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707589.6730983062</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R9" t="n">
-        <v>7397240.139162621</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816145</v>
+        <v>111816142</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>78604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1589,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>6461</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1617,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707626.9948496711</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R10" t="n">
-        <v>7397311.517900761</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1657,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1690,10 +1689,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816119</v>
+        <v>111816145</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>77597</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1705,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>864</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1729,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707595.5401507822</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R11" t="n">
-        <v>7397262.905378895</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1784,6 +1783,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780621</v>
+        <v>111780628</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707631.1509720345</v>
+        <v>707614.4806057075</v>
       </c>
       <c r="R2" t="n">
-        <v>7397277.54798521</v>
+        <v>7397255.163644295</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780628</v>
+        <v>111780627</v>
       </c>
       <c r="B4" t="n">
         <v>78604</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707614.4806057075</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R4" t="n">
-        <v>7397255.163644295</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780627</v>
+        <v>111780621</v>
       </c>
       <c r="B5" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707647.2196405758</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R5" t="n">
-        <v>7397286.731778639</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816132</v>
+        <v>111816118</v>
       </c>
       <c r="B6" t="n">
-        <v>95532</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707589.6730983062</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R6" t="n">
-        <v>7397240.139162621</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816137</v>
+        <v>111816142</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>78604</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707609.3988008115</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R7" t="n">
-        <v>7397264.348220735</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1334,6 +1334,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1464,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816118</v>
+        <v>111816145</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>77597</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1481,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>864</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707670.4513803272</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R9" t="n">
-        <v>7397327.948038339</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1558,6 +1559,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1576,10 +1578,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816142</v>
+        <v>111816137</v>
       </c>
       <c r="B10" t="n">
-        <v>78604</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1590,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707613.3456041727</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R10" t="n">
-        <v>7397270.22663033</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,7 +1648,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1658,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1670,7 +1672,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1689,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816145</v>
+        <v>111816132</v>
       </c>
       <c r="B11" t="n">
-        <v>77597</v>
+        <v>95532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1701,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>864</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1729,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707626.9948496711</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R11" t="n">
-        <v>7397311.517900761</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1783,7 +1784,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780624</v>
+        <v>111780627</v>
       </c>
       <c r="B3" t="n">
-        <v>95532</v>
+        <v>78604</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707600.9335272597</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R3" t="n">
-        <v>7397313.141869167</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780627</v>
+        <v>111780621</v>
       </c>
       <c r="B4" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707647.2196405758</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R4" t="n">
-        <v>7397286.731778639</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780621</v>
+        <v>111780624</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707631.1509720345</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R5" t="n">
-        <v>7397277.54798521</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816118</v>
+        <v>111816142</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>78604</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6461</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707670.4513803272</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R6" t="n">
-        <v>7397327.948038339</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1222,6 +1222,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1240,10 +1241,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816142</v>
+        <v>111816118</v>
       </c>
       <c r="B7" t="n">
-        <v>78604</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1253,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6461</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1281,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707613.3456041727</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R7" t="n">
-        <v>7397270.22663033</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1311,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1321,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1334,7 +1335,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816119</v>
+        <v>111816132</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,25 +1365,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707595.5401507822</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R8" t="n">
-        <v>7397262.905378895</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816145</v>
+        <v>111816119</v>
       </c>
       <c r="B9" t="n">
-        <v>77597</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,21 +1481,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707626.9948496711</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R9" t="n">
-        <v>7397311.517900761</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1559,7 +1559,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1578,10 +1577,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816137</v>
+        <v>111816145</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1594,21 +1593,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1618,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707609.3988008115</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R10" t="n">
-        <v>7397264.348220735</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,6 +1671,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816132</v>
+        <v>111816137</v>
       </c>
       <c r="B11" t="n">
-        <v>95532</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707589.6730983062</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R11" t="n">
-        <v>7397240.139162621</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780628</v>
+        <v>111780627</v>
       </c>
       <c r="B2" t="n">
         <v>78604</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707614.4806057075</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R2" t="n">
-        <v>7397255.163644295</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780627</v>
+        <v>111780621</v>
       </c>
       <c r="B3" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707647.2196405758</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R3" t="n">
-        <v>7397286.731778639</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780621</v>
+        <v>111780624</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707631.1509720345</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R4" t="n">
-        <v>7397277.54798521</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780624</v>
+        <v>111780628</v>
       </c>
       <c r="B5" t="n">
-        <v>95532</v>
+        <v>78604</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>6461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707600.9335272597</v>
+        <v>707614.4806057075</v>
       </c>
       <c r="R5" t="n">
-        <v>7397313.141869167</v>
+        <v>7397255.163644295</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816142</v>
+        <v>111816119</v>
       </c>
       <c r="B6" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707613.3456041727</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R6" t="n">
-        <v>7397270.22663033</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1222,7 +1222,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1241,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816118</v>
+        <v>111816137</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1281,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707670.4513803272</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R7" t="n">
-        <v>7397327.948038339</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1353,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816132</v>
+        <v>111816145</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>77597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707589.6730983062</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R8" t="n">
-        <v>7397240.139162621</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,6 +1446,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816119</v>
+        <v>111816132</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707595.5401507822</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R9" t="n">
-        <v>7397262.905378895</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816145</v>
+        <v>111816142</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>78604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1589,25 +1589,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>6461</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707626.9948496711</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R10" t="n">
-        <v>7397311.517900761</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816137</v>
+        <v>111816118</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1706,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707609.3988008115</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R11" t="n">
-        <v>7397264.348220735</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780627</v>
+        <v>111780621</v>
       </c>
       <c r="B2" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707647.2196405758</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R2" t="n">
-        <v>7397286.731778639</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780621</v>
+        <v>111780628</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707631.1509720345</v>
+        <v>707614.4806057075</v>
       </c>
       <c r="R3" t="n">
-        <v>7397277.54798521</v>
+        <v>7397255.163644295</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780628</v>
+        <v>111780627</v>
       </c>
       <c r="B5" t="n">
         <v>78604</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707614.4806057075</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R5" t="n">
-        <v>7397255.163644295</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816119</v>
+        <v>111816145</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>77597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707595.5401507822</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R6" t="n">
-        <v>7397262.905378895</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1222,6 +1222,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1240,10 +1241,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816137</v>
+        <v>111816132</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1253,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1281,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707609.3988008115</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R7" t="n">
-        <v>7397264.348220735</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1353,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816145</v>
+        <v>111816118</v>
       </c>
       <c r="B8" t="n">
-        <v>77597</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1369,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1393,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707626.9948496711</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R8" t="n">
-        <v>7397311.517900761</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1446,7 +1447,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816132</v>
+        <v>111816142</v>
       </c>
       <c r="B9" t="n">
-        <v>95532</v>
+        <v>78604</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,21 +1481,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>6461</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707589.6730983062</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R9" t="n">
-        <v>7397240.139162621</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1559,6 +1559,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1577,10 +1578,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816142</v>
+        <v>111816137</v>
       </c>
       <c r="B10" t="n">
-        <v>78604</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1589,25 +1590,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6461</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1617,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707613.3456041727</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R10" t="n">
-        <v>7397270.22663033</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,7 +1648,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1657,7 +1658,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1671,7 +1672,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816118</v>
+        <v>111816119</v>
       </c>
       <c r="B11" t="n">
-        <v>78107</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1706,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707670.4513803272</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R11" t="n">
-        <v>7397327.948038339</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780621</v>
+        <v>111780624</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707631.1509720345</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R2" t="n">
-        <v>7397277.54798521</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780624</v>
+        <v>111780627</v>
       </c>
       <c r="B4" t="n">
-        <v>95532</v>
+        <v>78604</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221945</v>
+        <v>6461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707600.9335272597</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R4" t="n">
-        <v>7397313.141869167</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780627</v>
+        <v>111780621</v>
       </c>
       <c r="B5" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707647.2196405758</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R5" t="n">
-        <v>7397286.731778639</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816145</v>
+        <v>111816137</v>
       </c>
       <c r="B6" t="n">
-        <v>77597</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>864</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707626.9948496711</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R6" t="n">
-        <v>7397311.517900761</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1222,7 +1222,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1241,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816132</v>
+        <v>111816145</v>
       </c>
       <c r="B7" t="n">
-        <v>95532</v>
+        <v>77597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1253,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1281,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707589.6730983062</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R7" t="n">
-        <v>7397240.139162621</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1334,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816142</v>
+        <v>111816119</v>
       </c>
       <c r="B9" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707613.3456041727</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R9" t="n">
-        <v>7397270.22663033</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1559,7 +1559,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1578,10 +1577,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816137</v>
+        <v>111816142</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>78604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1590,25 +1589,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1618,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707609.3988008115</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R10" t="n">
-        <v>7397264.348220735</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1648,7 +1647,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1658,7 +1657,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1672,6 +1671,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816119</v>
+        <v>111816132</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>95532</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707595.5401507822</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R11" t="n">
-        <v>7397262.905378895</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780624</v>
+        <v>111780621</v>
       </c>
       <c r="B2" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707600.9335272597</v>
+        <v>707631.1509720345</v>
       </c>
       <c r="R2" t="n">
-        <v>7397313.141869167</v>
+        <v>7397277.54798521</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780628</v>
+        <v>111780624</v>
       </c>
       <c r="B3" t="n">
-        <v>78604</v>
+        <v>95532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707614.4806057075</v>
+        <v>707600.9335272597</v>
       </c>
       <c r="R3" t="n">
-        <v>7397255.163644295</v>
+        <v>7397313.141869167</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780627</v>
+        <v>111780628</v>
       </c>
       <c r="B4" t="n">
         <v>78604</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707647.2196405758</v>
+        <v>707614.4806057075</v>
       </c>
       <c r="R4" t="n">
-        <v>7397286.731778639</v>
+        <v>7397255.163644295</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780621</v>
+        <v>111780627</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707631.1509720345</v>
+        <v>707647.2196405758</v>
       </c>
       <c r="R5" t="n">
-        <v>7397277.54798521</v>
+        <v>7397286.731778639</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816137</v>
+        <v>111816118</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707609.3988008115</v>
+        <v>707670.4513803272</v>
       </c>
       <c r="R6" t="n">
-        <v>7397264.348220735</v>
+        <v>7397327.948038339</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816145</v>
+        <v>111816142</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>78604</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>6461</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707626.9948496711</v>
+        <v>707613.3456041727</v>
       </c>
       <c r="R7" t="n">
-        <v>7397311.517900761</v>
+        <v>7397270.22663033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1353,10 +1353,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816118</v>
+        <v>111816132</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,25 +1365,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707670.4513803272</v>
+        <v>707589.6730983062</v>
       </c>
       <c r="R8" t="n">
-        <v>7397327.948038339</v>
+        <v>7397240.139162621</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816119</v>
+        <v>111816137</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,21 +1481,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707595.5401507822</v>
+        <v>707609.3988008115</v>
       </c>
       <c r="R9" t="n">
-        <v>7397262.905378895</v>
+        <v>7397264.348220735</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816142</v>
+        <v>111816145</v>
       </c>
       <c r="B10" t="n">
-        <v>78604</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1589,25 +1589,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6461</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707613.3456041727</v>
+        <v>707626.9948496711</v>
       </c>
       <c r="R10" t="n">
-        <v>7397270.22663033</v>
+        <v>7397311.517900761</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816132</v>
+        <v>111816119</v>
       </c>
       <c r="B11" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,25 +1702,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707589.6730983062</v>
+        <v>707595.5401507822</v>
       </c>
       <c r="R11" t="n">
-        <v>7397240.139162621</v>
+        <v>7397262.905378895</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1799,6 +1799,118 @@
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112202299</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55611</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Saskam, Lu lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>707645.8741767473</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7397378.715239713</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Jokkmokk</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lule lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Jokkmokk</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Cecilia Lundin</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Cecilia Lundin</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780621</v>
+        <v>111780628</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707631.1509720345</v>
+        <v>707614</v>
       </c>
       <c r="R2" t="n">
-        <v>7397277.54798521</v>
+        <v>7397255</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -753,19 +753,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780624</v>
+        <v>111780621</v>
       </c>
       <c r="B3" t="n">
-        <v>95532</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707600.9335272597</v>
+        <v>707631</v>
       </c>
       <c r="R3" t="n">
-        <v>7397313.141869167</v>
+        <v>7397278</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -865,19 +855,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111780628</v>
+        <v>111780627</v>
       </c>
       <c r="B4" t="n">
         <v>78604</v>
@@ -944,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>707614.4806057075</v>
+        <v>707647</v>
       </c>
       <c r="R4" t="n">
-        <v>7397255.163644295</v>
+        <v>7397287</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -977,19 +957,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111780627</v>
+        <v>111780624</v>
       </c>
       <c r="B5" t="n">
-        <v>78604</v>
+        <v>95532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6461</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>707647.2196405758</v>
+        <v>707601</v>
       </c>
       <c r="R5" t="n">
-        <v>7397286.731778639</v>
+        <v>7397313</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1089,19 +1059,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707670.4513803272</v>
+        <v>707670</v>
       </c>
       <c r="R6" t="n">
-        <v>7397327.948038339</v>
+        <v>7397328</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1201,19 +1161,9 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111816142</v>
+        <v>111816132</v>
       </c>
       <c r="B7" t="n">
-        <v>78604</v>
+        <v>95532</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1206,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6461</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>707613.3456041727</v>
+        <v>707590</v>
       </c>
       <c r="R7" t="n">
-        <v>7397270.22663033</v>
+        <v>7397240</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,22 +1260,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1334,7 +1274,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1353,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816132</v>
+        <v>111816145</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>77597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707589.6730983062</v>
+        <v>707627</v>
       </c>
       <c r="R8" t="n">
-        <v>7397240.139162621</v>
+        <v>7397312</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1426,27 +1365,18 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1465,10 +1395,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816137</v>
+        <v>111816142</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>78604</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,25 +1407,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707609.3988008115</v>
+        <v>707613</v>
       </c>
       <c r="R9" t="n">
-        <v>7397264.348220735</v>
+        <v>7397270</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1535,22 +1465,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1559,6 +1479,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1577,10 +1498,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816145</v>
+        <v>111816137</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1593,21 +1514,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1617,10 +1538,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707626.9948496711</v>
+        <v>707609</v>
       </c>
       <c r="R10" t="n">
-        <v>7397311.517900761</v>
+        <v>7397264</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1650,28 +1571,17 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1730,10 +1640,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707595.5401507822</v>
+        <v>707596</v>
       </c>
       <c r="R11" t="n">
-        <v>7397262.905378895</v>
+        <v>7397263</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1763,19 +1673,9 @@
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1842,10 +1742,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>707645.8741767473</v>
+        <v>707646</v>
       </c>
       <c r="R12" t="n">
-        <v>7397378.715239713</v>
+        <v>7397379</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1875,19 +1775,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111780628</v>
+        <v>111780621</v>
       </c>
       <c r="B2" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>707614</v>
+        <v>707631</v>
       </c>
       <c r="R2" t="n">
-        <v>7397255</v>
+        <v>7397278</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111780621</v>
+        <v>111780628</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>78604</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>707631</v>
+        <v>707614</v>
       </c>
       <c r="R3" t="n">
-        <v>7397278</v>
+        <v>7397255</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111816118</v>
+        <v>111816145</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>77597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>707670</v>
+        <v>707627</v>
       </c>
       <c r="R6" t="n">
-        <v>7397328</v>
+        <v>7397312</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1172,6 +1172,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1292,10 +1293,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111816145</v>
+        <v>111816137</v>
       </c>
       <c r="B8" t="n">
-        <v>77597</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1309,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1333,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>707627</v>
+        <v>707609</v>
       </c>
       <c r="R8" t="n">
-        <v>7397312</v>
+        <v>7397264</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1376,7 +1377,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111816142</v>
+        <v>111816119</v>
       </c>
       <c r="B9" t="n">
-        <v>78604</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1407,25 +1407,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6461</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>707613</v>
+        <v>707596</v>
       </c>
       <c r="R9" t="n">
-        <v>7397270</v>
+        <v>7397263</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1465,12 +1465,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1479,7 +1479,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1498,10 +1497,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111816137</v>
+        <v>111816142</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>78604</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1510,25 +1509,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>6461</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1538,10 +1537,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>707609</v>
+        <v>707613</v>
       </c>
       <c r="R10" t="n">
-        <v>7397264</v>
+        <v>7397270</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1568,12 +1567,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1582,6 +1581,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111816119</v>
+        <v>111816118</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1616,21 +1616,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>707596</v>
+        <v>707670</v>
       </c>
       <c r="R11" t="n">
-        <v>7397263</v>
+        <v>7397328</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1705,7 +1705,7 @@
         <v>112202299</v>
       </c>
       <c r="B12" t="n">
-        <v>55611</v>
+        <v>55643</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1801,6 +1801,108 @@
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112432492</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Saskam, Lu lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>707528</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7397284</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Jokkmokk</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lule lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Jokkmokk</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Ida Jansson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Ida Jansson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23018-2023.xlsx
+++ b/artfynd/A 23018-2023.xlsx
@@ -1807,7 +1807,7 @@
         <v>112432492</v>
       </c>
       <c r="B13" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
